--- a/python/results/Viral_CD38_loadings_and_variance.xlsx
+++ b/python/results/Viral_CD38_loadings_and_variance.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2768262113024513</v>
+        <v>0.2801592869030424</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2425691611620799</v>
+        <v>0.223807720663504</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1508947702891501</v>
+        <v>0.1613471388568065</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1386932542494053</v>
+        <v>0.1333666948943119</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05971623031031751</v>
+        <v>0.07654365938100995</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05201066258954828</v>
+        <v>0.05116824777468539</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03704091149830674</v>
+        <v>0.03637788218580254</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03204608369365139</v>
+        <v>0.02126064345759169</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007825981823408278</v>
+        <v>0.0148903081800334</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002376733081681049</v>
+        <v>0.001078417703212272</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4367016485355086</v>
+        <v>-0.4112165764825886</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.06815487580059032</v>
+        <v>-0.1111059913309195</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1487749744438976</v>
+        <v>-0.2378962100649653</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1272822286860844</v>
+        <v>-0.1982608817703064</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4202575717971643</v>
+        <v>0.3237264849924161</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4353759762998787</v>
+        <v>-0.4140552991478871</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4491042489623054</v>
+        <v>0.445325455724493</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05365204500765916</v>
+        <v>-0.0556686511085572</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3469839304556916</v>
+        <v>0.3724009142819732</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2741753828391509</v>
+        <v>0.3260637558579378</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.008402435215819007</v>
+        <v>0.007018802405578252</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6240765176063461</v>
+        <v>0.623981017950286</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3435686950290974</v>
+        <v>-0.3665702603744368</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5508662140827162</v>
+        <v>0.5135320752988868</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1196476202180824</v>
+        <v>-0.1166838795584464</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02978988724559356</v>
+        <v>0.04461879192141605</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.04627200850016158</v>
+        <v>-0.0118135495498416</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2264036722099941</v>
+        <v>-0.3124949148128933</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1154247767473205</v>
+        <v>0.08657893419263701</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3271685715025576</v>
+        <v>0.3026796484314707</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1443565336217184</v>
+        <v>-0.2515751974670757</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07541886437179181</v>
+        <v>0.1146098567324167</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5747326038624216</v>
+        <v>0.5024482565495616</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3073784869089224</v>
+        <v>0.3514354846388243</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.04086974604766196</v>
+        <v>0.2663904355021897</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2073033909285691</v>
+        <v>-0.2358895520645405</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1165712536791379</v>
+        <v>0.2147881512142642</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5769205091442933</v>
+        <v>-0.3975193560509301</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04578938387448261</v>
+        <v>-0.1640645395029625</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3943428142834212</v>
+        <v>-0.435812854361129</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3122420552763454</v>
+        <v>-0.3427228228127813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04977663718591326</v>
+        <v>0.1396300208110093</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1591767538111729</v>
+        <v>0.1957940480787807</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1763202729804478</v>
+        <v>0.2336162474402565</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3664453677233633</v>
+        <v>-0.2853412746185434</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2512021762153479</v>
+        <v>-0.2927466504048205</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2947187707744958</v>
+        <v>-0.3550918169639755</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4689515220500913</v>
+        <v>0.4808621923124224</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5276059127883225</v>
+        <v>0.4698879497441695</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.2471309040551986</v>
+        <v>-0.1577944472127268</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.002187030186901729</v>
+        <v>-0.1188678547495912</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.08373070138314248</v>
+        <v>0.1924542593531748</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1642861420334902</v>
+        <v>-0.07700687639615592</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0453005271991868</v>
+        <v>0.1019240101713905</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4897891516625877</v>
+        <v>0.6948053317562187</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3844738044645058</v>
+        <v>-0.02134899759334891</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6636176492943483</v>
+        <v>-0.3183402523009869</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.104576015323286</v>
+        <v>0.4258249873940606</v>
       </c>
       <c r="J7" t="n">
-        <v>0.27230114240992</v>
+        <v>-0.3808387182470551</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2252917071636405</v>
+        <v>0.146960655030396</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7513404309280006</v>
+        <v>-0.6382119841933573</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.05401649107291656</v>
+        <v>0.01640507226039112</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1493797238119693</v>
+        <v>0.09042795987721501</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.08425230668867152</v>
+        <v>0.02337086698808488</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01913923516440341</v>
+        <v>-0.1263124195759187</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4582975352196602</v>
+        <v>0.6883704461315618</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.02121909296478453</v>
+        <v>0.2449577482467995</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1784894633054491</v>
+        <v>0.136361167893198</v>
       </c>
       <c r="J8" t="n">
-        <v>0.382359453716297</v>
+        <v>-0.09562147590705675</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1193590847064403</v>
+        <v>0.07837149895407364</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0263950911734202</v>
+        <v>0.2531410189927251</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07514999226189828</v>
+        <v>0.07324426033441005</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1120177099939009</v>
+        <v>-0.1865056290967124</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06712607871379882</v>
+        <v>0.07282752027391041</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6085378145154847</v>
+        <v>0.417619010967049</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5022478628185005</v>
+        <v>0.3969911222124154</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1624620104594164</v>
+        <v>0.1353142944313513</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01611492705255769</v>
+        <v>0.08836107043288767</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4267049739497705</v>
+        <v>0.5601315800714226</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.3811823475953233</v>
+        <v>-0.4675404709348753</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08536142689709557</v>
+        <v>0.0928162998542124</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1715632482804707</v>
+        <v>0.2301502195493267</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4827016293470777</v>
+        <v>-0.2908462217045114</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.09143346863977023</v>
+        <v>0.02987939573780848</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09300200265709888</v>
+        <v>-0.2306942587939626</v>
       </c>
       <c r="G10" t="n">
-        <v>0.304748002456923</v>
+        <v>-0.2207721073303758</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1515058062425733</v>
+        <v>0.5550129827547824</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2105650690548279</v>
+        <v>0.4589991715166854</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4216235382447891</v>
+        <v>-0.3377368040405414</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6126497803334907</v>
+        <v>-0.3437815356514213</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3377957968179739</v>
+        <v>0.3928824133372507</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0187906597635768</v>
+        <v>-0.01885471349131324</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3536001922561723</v>
+        <v>0.5296120664292547</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4584618894069631</v>
+        <v>0.292765824252011</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2317172524197564</v>
+        <v>0.05155828066182996</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02232457117011413</v>
+        <v>0.06606001488644159</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4338159514198316</v>
+        <v>0.3761293530055626</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5381368350063349</v>
+        <v>0.3007026475408184</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.07262913169726359</v>
+        <v>0.1332727909427989</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1143097351087695</v>
+        <v>0.4716014728606231</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06542674323527888</v>
+        <v>0.04008384956032874</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7432055733849614</v>
+        <v>0.685327711511628</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2903198051085866</v>
+        <v>0.3229086363990749</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5679536890874823</v>
+        <v>-0.6450200185617742</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01397225765146759</v>
+        <v>0.0144746673632104</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001925710263923519</v>
+        <v>0.01438887402142819</v>
       </c>
       <c r="H12" t="n">
-        <v>0.131656505828549</v>
+        <v>0.01241192960787013</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1269913678536679</v>
+        <v>-0.03415486219743112</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01869247075554459</v>
+        <v>0.07970583533032982</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.04999250873493374</v>
+        <v>0.01755604019182527</v>
       </c>
     </row>
   </sheetData>

--- a/python/results/Viral_CD38_loadings_and_variance.xlsx
+++ b/python/results/Viral_CD38_loadings_and_variance.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2801592869030424</v>
+        <v>0.2677474794977742</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223807720663504</v>
+        <v>0.195733566881263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1613471388568065</v>
+        <v>0.1678449998884459</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1333666948943119</v>
+        <v>0.1487938018640013</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07654365938100995</v>
+        <v>0.09413192490053597</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05116824777468539</v>
+        <v>0.05505204225567863</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03637788218580254</v>
+        <v>0.03004064202780249</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02126064345759169</v>
+        <v>0.02315409863377766</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0148903081800334</v>
+        <v>0.01676282454018689</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001078417703212272</v>
+        <v>0.000738619510533973</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4112165764825886</v>
+        <v>0.2981462488919666</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1111059913309195</v>
+        <v>0.5393793868818548</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2378962100649653</v>
+        <v>-0.221878404721973</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1982608817703064</v>
+        <v>0.4543412526607699</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3237264849924161</v>
+        <v>-0.2927773460329756</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4140552991478871</v>
+        <v>0.3244705187820822</v>
       </c>
       <c r="H3" t="n">
-        <v>0.445325455724493</v>
+        <v>-0.3510840367478854</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0556686511085572</v>
+        <v>-0.1419180823020214</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3724009142819732</v>
+        <v>-0.1349226667427674</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3260637558579378</v>
+        <v>0.10917018857727</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007018802405578252</v>
+        <v>0.05233522953507305</v>
       </c>
       <c r="C4" t="n">
-        <v>0.623981017950286</v>
+        <v>-0.06146923247455397</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3665702603744368</v>
+        <v>-0.5752104144858186</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5135320752988868</v>
+        <v>-0.2799097465957932</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1166838795584464</v>
+        <v>-0.1619823902203328</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04461879192141605</v>
+        <v>-0.08796001546159284</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0118135495498416</v>
+        <v>-0.06578410945442745</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3124949148128933</v>
+        <v>0.2556592344297932</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08657893419263701</v>
+        <v>0.383032637024334</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3026796484314707</v>
+        <v>0.5778300933172147</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2515751974670757</v>
+        <v>0.5127703839103727</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1146098567324167</v>
+        <v>-0.226862852639246</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5024482565495616</v>
+        <v>-0.1960405593467776</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3514354846388243</v>
+        <v>-0.3244401543353806</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2663904355021897</v>
+        <v>0.1811318472870239</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2358895520645405</v>
+        <v>0.3722630671606113</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2147881512142642</v>
+        <v>0.2972647398802918</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3975193560509301</v>
+        <v>-0.2462255453221583</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1640645395029625</v>
+        <v>-0.4530262573170529</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.435812854361129</v>
+        <v>0.1276393081507624</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3427228228127813</v>
+        <v>0.09153385686676398</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1396300208110093</v>
+        <v>-0.2322804449026371</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1957940480787807</v>
+        <v>0.1720248095569571</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2336162474402565</v>
+        <v>-0.2345834388813025</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2853412746185434</v>
+        <v>-0.1511015532199168</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2927466504048205</v>
+        <v>0.4270969428207144</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3550918169639755</v>
+        <v>-0.4538479518970781</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4808621923124224</v>
+        <v>0.621134413580497</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4698879497441695</v>
+        <v>-0.09272583748173627</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1577944472127268</v>
+        <v>-0.2177566095399193</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1188678547495912</v>
+        <v>-0.09223469592342426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1924542593531748</v>
+        <v>0.1651979872094867</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.07700687639615592</v>
+        <v>-0.1173042634033831</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1019240101713905</v>
+        <v>0.08084543784260921</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6948053317562187</v>
+        <v>0.7547172807238902</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02134899759334891</v>
+        <v>-0.1943796980994759</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3183402523009869</v>
+        <v>-0.347403689111155</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4258249873940606</v>
+        <v>0.2268751194265659</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.3808387182470551</v>
+        <v>-0.3422866610802389</v>
       </c>
       <c r="K7" t="n">
-        <v>0.146960655030396</v>
+        <v>0.21726175140703</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6382119841933573</v>
+        <v>0.6737196076899951</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01640507226039112</v>
+        <v>0.03007736224985724</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09042795987721501</v>
+        <v>-0.07951457668383727</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02337086698808488</v>
+        <v>0.04020205587953163</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1263124195759187</v>
+        <v>0.2765172626998383</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6883704461315618</v>
+        <v>-0.2478028056593721</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2449577482467995</v>
+        <v>-0.07090795774645089</v>
       </c>
       <c r="I8" t="n">
-        <v>0.136361167893198</v>
+        <v>0.05745012286049174</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.09562147590705675</v>
+        <v>0.464265685137384</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07837149895407364</v>
+        <v>-0.4189503082034545</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2531410189927251</v>
+        <v>-0.3049945181356603</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07324426033441005</v>
+        <v>-0.07201580962728299</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1865056290967124</v>
+        <v>-0.1158065610974782</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07282752027391041</v>
+        <v>0.008328942516043079</v>
       </c>
       <c r="F9" t="n">
-        <v>0.417619010967049</v>
+        <v>0.396305632037947</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3969911222124154</v>
+        <v>0.6190555733359435</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1353142944313513</v>
+        <v>-0.1207447387727985</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08836107043288767</v>
+        <v>-0.3191133991348042</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5601315800714226</v>
+        <v>0.4755741769151565</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.4675404709348753</v>
+        <v>-0.07375722428186091</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0928162998542124</v>
+        <v>0.2283139966626821</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301502195493267</v>
+        <v>-0.2538492741442621</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2908462217045114</v>
+        <v>0.5324303056949016</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02987939573780848</v>
+        <v>-0.06661140965803766</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2306942587939626</v>
+        <v>-0.03060265183618317</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2207721073303758</v>
+        <v>-0.1232665174696402</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5550129827547824</v>
+        <v>-0.4588808244149348</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4589991715166854</v>
+        <v>-0.3805442071326117</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.3377368040405414</v>
+        <v>0.1237522044188148</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.3437815356514213</v>
+        <v>0.4568182190985951</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3928824133372507</v>
+        <v>0.1717653821117551</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01885471349131324</v>
+        <v>0.06158389954579296</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5296120664292547</v>
+        <v>0.3885913592880636</v>
       </c>
       <c r="E11" t="n">
-        <v>0.292765824252011</v>
+        <v>0.3812493621032458</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05155828066182996</v>
+        <v>0.1622532830643689</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06606001488644159</v>
+        <v>0.2551539215918687</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3761293530055626</v>
+        <v>0.4707737020616058</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3007026475408184</v>
+        <v>0.4081928322828229</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1332727909427989</v>
+        <v>0.1941711000613237</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4716014728606231</v>
+        <v>0.3911117764265059</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04008384956032874</v>
+        <v>0.0005402570954805504</v>
       </c>
       <c r="C12" t="n">
-        <v>0.685327711511628</v>
+        <v>0.7058733039810163</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3229086363990749</v>
+        <v>0.2896536275039984</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6450200185617742</v>
+        <v>-0.6300190782410284</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0144746673632104</v>
+        <v>0.04496588570760188</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01438887402142819</v>
+        <v>0.05720725430974594</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01241192960787013</v>
+        <v>0.07464661999838632</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.03415486219743112</v>
+        <v>-0.004599458138966755</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07970583533032982</v>
+        <v>0.09674913706182081</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01755604019182527</v>
+        <v>0.02590472423328585</v>
       </c>
     </row>
   </sheetData>
